--- a/readkeyword.xlsx
+++ b/readkeyword.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\workspace\selenium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA3DAC1F-1C8B-40C9-A71B-20CB33595948}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B45C23-4489-44F7-A8A3-944CE1C898BE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6885" xr2:uid="{2EFD4843-E2CC-49AE-8608-954EC0235E31}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="179021"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -402,7 +403,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/readkeyword.xlsx
+++ b/readkeyword.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\workspace\selenium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B45C23-4489-44F7-A8A3-944CE1C898BE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A737F09D-86D7-493E-9CFE-97DC39B540A3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6885" xr2:uid="{2EFD4843-E2CC-49AE-8608-954EC0235E31}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6885" xr2:uid="{48EC0485-6B1B-4EDD-81B8-21E20B19D430}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,34 +31,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>openBrowser</t>
-  </si>
-  <si>
-    <t>search</t>
-  </si>
-  <si>
-    <t>closeBrowser</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>test1</t>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>test3</t>
+  </si>
+  <si>
+    <t>home1</t>
+  </si>
+  <si>
+    <t>home2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Courier New"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -81,11 +84,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,36 +399,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B890D0C-204A-4EA7-B29C-159656D801AF}">
-  <dimension ref="A1:A3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{946F71DC-252B-4E9C-8641-4A9899225015}">
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="204" verticalDpi="196" r:id="rId1"/>
 </worksheet>
 </file>